--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T13:24:43+00:00</t>
+    <t>2023-05-02T05:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T05:42:39+00:00</t>
+    <t>2023-05-02T07:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T07:13:26+00:00</t>
+    <t>2023-05-02T07:35:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T07:35:32+00:00</t>
+    <t>2023-05-02T08:12:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:12:13+00:00</t>
+    <t>2023-05-02T08:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:43:22+00:00</t>
+    <t>2023-05-02T09:16:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T09:16:23+00:00</t>
+    <t>2023-05-02T10:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T10:08:35+00:00</t>
+    <t>2023-05-03T11:14:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-03T11:14:58+00:00</t>
+    <t>2023-05-03T11:23:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-03T11:23:38+00:00</t>
+    <t>2023-05-03T11:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-03T11:48:06+00:00</t>
+    <t>2023-05-03T12:04:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-03T12:04:21+00:00</t>
+    <t>2023-05-03T23:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-03T23:42:19+00:00</t>
+    <t>2023-05-04T00:04:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T00:04:48+00:00</t>
+    <t>2023-05-04T00:59:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T00:59:47+00:00</t>
+    <t>2023-05-04T03:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T03:31:39+00:00</t>
+    <t>2023-05-04T08:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T08:34:01+00:00</t>
+    <t>2023-05-04T11:04:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T11:04:50+00:00</t>
+    <t>2023-05-04T22:35:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T22:35:09+00:00</t>
+    <t>2023-05-05T00:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T00:31:39+00:00</t>
+    <t>2023-05-05T01:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T01:35:58+00:00</t>
+    <t>2023-05-05T02:46:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T02:46:26+00:00</t>
+    <t>2023-05-05T04:20:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T04:20:47+00:00</t>
+    <t>2023-05-05T04:49:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T04:49:31+00:00</t>
+    <t>2023-05-08T12:45:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T12:45:08+00:00</t>
+    <t>2023-05-09T08:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T08:56:30+00:00</t>
+    <t>2023-05-17T03:28:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T03:28:53+00:00</t>
+    <t>2023-05-18T12:17:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-18T12:17:11+00:00</t>
+    <t>2023-05-18T23:32:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
